--- a/tables/htru2_svm_1.xlsx
+++ b/tables/htru2_svm_1.xlsx
@@ -658,7 +658,7 @@
         <v>0.3</v>
       </c>
       <c r="C8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="n">
         <v>97.2</v>
